--- a/biology/Zoologie/Eucarida/Eucarida.xlsx
+++ b/biology/Zoologie/Eucarida/Eucarida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucarida est un super-ordre de crustacés de la classe des malacostracés.
 Le super-ordre des Eucarida a été créé par William Thomas Calman (1871-1952) en 1904.
@@ -512,7 +524,9 @@
           <t>Caractéristique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une carapace recouvre et est soudée à tous les segments thoraciques. Chez les décapodes en particulier, les trois premières paires de péréiopodes (appendices sur les trois premiers segments du thorax) sont céphalisées. Certaines espèces ne font pas de distinction entre la tête et le thorax, nous avons donc un corps formé de deux parties: un céphalothorax et un abdomen. 
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 mars 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 mars 2017) :
 Decapoda Latreille, 1802 — crabes, crevettes, écrevisses, homards, langoustes, galathées
 Euphausiacea Dana, 1852 — krill
 			Amphionides reynaudii, l'unique Amphionidacea connu
